--- a/RheoMeasurements/run1_1__00_25_50_75_100.xlsx
+++ b/RheoMeasurements/run1_1__00_25_50_75_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\RheoMeasurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="11_4F14A23FB0801E95DDDF33A990A8BEE33591B6F9" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6C0CB84A-0B1B-4D43-8B2F-F37C9766450E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{2BBC605A-61E7-42CB-B80C-AF19A465BE6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3CA0AD33-6C3D-46D4-B672-7A2CB0C12286}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="12435" windowHeight="6285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -823,7 +823,7 @@
             <c:numRef>
               <c:f>'[1]0.25WT'!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.9848899999999997E-3</c:v>
@@ -837,28 +837,28 @@
                 <c:pt idx="3">
                   <c:v>9.5058599999999997E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>1.10843E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.29251E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.5067499999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.7579000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>2.04849E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>2.3887100000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>2.7843900000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>3.00167E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -948,7 +948,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1124,206 +1124,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]0WT'!$C$1:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pa.s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]0WT'!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6.3061499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3512899999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5760100000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9944100000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.16565E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3594699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.58452E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8483599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1543E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]0WT'!$C$3:$C$11</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE9C-4E89-BE9F-64A80A642B4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]0WT'!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6.3061499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3512899999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5760100000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9944100000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.16565E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3594699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.58452E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8483599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1543E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]0WT'!$D$3:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.31791611635298223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3070858866418737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32545907729515677</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32033600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31348822272171417</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30179665004511147</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28695912792477857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26617545253446756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2376574812486181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DE9C-4E89-BE9F-64A80A642B4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>0.25</c:v>
           </c:tx>
@@ -1355,7 +1157,7 @@
             <c:numRef>
               <c:f>'[1]0.25WT'!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.9848899999999997E-3</c:v>
@@ -1369,28 +1171,28 @@
                 <c:pt idx="3">
                   <c:v>9.5058599999999997E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>1.10843E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.29251E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.5067499999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.7579000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>2.04849E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>2.3887100000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>2.7843900000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>3.00167E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1450,7 +1252,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>0.5</c:v>
           </c:tx>
@@ -1482,7 +1284,7 @@
             <c:numRef>
               <c:f>'[1]0.5WT'!$B$3:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.9938099999999996E-3</c:v>
@@ -1499,34 +1301,34 @@
                 <c:pt idx="4">
                   <c:v>9.5045100000000007E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06677E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.1966900000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.3432599999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.50601E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6910600000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8969300000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1285399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3878099999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.6791300000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>2.99835E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1595,7 +1397,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>0.75</c:v>
           </c:tx>
@@ -1627,7 +1429,7 @@
             <c:numRef>
               <c:f>'[1]0.75WT'!$B$3:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.9807200000000001E-3</c:v>
@@ -1644,34 +1446,34 @@
                 <c:pt idx="4">
                   <c:v>9.5119699999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06716E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.19715E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.34371E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.50674E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6912799999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8967399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1281399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3889500000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.68065E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>3.0067900000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1740,7 +1542,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>1</c:v>
           </c:tx>
@@ -1772,7 +1574,7 @@
             <c:numRef>
               <c:f>'[1]1WT'!$B$3:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.99491E-3</c:v>
@@ -1789,34 +1591,34 @@
                 <c:pt idx="4">
                   <c:v>9.5083100000000007E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06683E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.1972999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.34339E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.5076000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6911700000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8974899999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1287500000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3886399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.67996E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>3.00769E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1893,6 +1695,133 @@
         </c:dLbls>
         <c:axId val="391192655"/>
         <c:axId val="414344207"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>0</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]0WT'!$B$3:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>6.3061499999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.3512899999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.5760100000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.9944100000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.16565E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.3594699999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.58452E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.8483599999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.1543E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]0WT'!$D$3:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.31791611635298223</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3070858866418737</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.32545907729515677</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.32033600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.31348822272171417</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.30179665004511147</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.28695912792477857</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.26617545253446756</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.2376574812486181</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-DE9C-4E89-BE9F-64A80A642B4E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="391192655"/>
@@ -1915,7 +1844,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6146,12 +6075,9 @@
             <c:strRef>
               <c:f>'[1]0WT'!$D$1:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pa.s</c:v>
+                  <c:v>Viscosity Pa.s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6184,7 +6110,7 @@
             <c:numRef>
               <c:f>'[1]0WT'!$B$3:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.3061499999999999E-3</c:v>
@@ -6291,7 +6217,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6528,12 +6454,9 @@
             <c:strRef>
               <c:f>'[1]0.75WT'!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pa.s</c:v>
+                  <c:v>Viscosity Pa.s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6566,7 +6489,7 @@
             <c:numRef>
               <c:f>'[1]0.75WT'!$B$3:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5.9807200000000001E-3</c:v>
@@ -6583,67 +6506,67 @@
                 <c:pt idx="4">
                   <c:v>9.5119699999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06716E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.19715E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.34371E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.50674E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6912799999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8967399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1281399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3889500000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.68065E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>3.0067900000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>3.37405E-2</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>3.7847499999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>4.2475699999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>4.7647599999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>5.3478999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>5.99979E-2</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="21">
                   <c:v>6.7309999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="22">
                   <c:v>7.5529100000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="23">
                   <c:v>8.4744700000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="24">
                   <c:v>9.5085100000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="25">
                   <c:v>0.100009</c:v>
                 </c:pt>
               </c:numCache>
@@ -6775,7 +6698,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7020,12 +6943,9 @@
             <c:strRef>
               <c:f>'[1]1WT'!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pa.s</c:v>
+                  <c:v>Viscosity Pa.s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7058,7 +6978,7 @@
             <c:numRef>
               <c:f>'[1]1WT'!$B$3:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5.99491E-3</c:v>
@@ -7075,67 +6995,67 @@
                 <c:pt idx="4">
                   <c:v>9.5083100000000007E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06683E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.1972999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.34339E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.5076000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6911700000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8974899999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1287500000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3886399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.67996E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>3.00769E-2</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>3.3733399999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>3.7864599999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>4.24818E-2</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>4.76701E-2</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>5.3474300000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>5.9995800000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="21">
                   <c:v>6.7311700000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="22">
                   <c:v>7.5518000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="23">
                   <c:v>8.4730200000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="24">
                   <c:v>9.5077099999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="25">
                   <c:v>9.9982199999999993E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7267,7 +7187,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7512,12 +7432,9 @@
             <c:strRef>
               <c:f>'[1]0.5WT'!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pa.s</c:v>
+                  <c:v>Viscosity Pa.s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7550,7 +7467,7 @@
             <c:numRef>
               <c:f>'[1]0.5WT'!$B$3:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.9938099999999996E-3</c:v>
@@ -7567,34 +7484,34 @@
                 <c:pt idx="4">
                   <c:v>9.5045100000000007E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.06677E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>1.1966900000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1.3432599999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>1.50601E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1.6910600000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1.8969300000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.1285399999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.3878099999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>2.6791300000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>2.99835E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7693,7 +7610,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17621,18 +17538,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Shear rate</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Viscosity</v>
-          </cell>
-        </row>
         <row r="2">
-          <cell r="B2" t="str">
-            <v>1/s</v>
-          </cell>
           <cell r="C2" t="str">
             <v>Pa.s</v>
           </cell>
@@ -17731,136 +17637,6 @@
           </cell>
           <cell r="C14">
             <v>3.5236000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Viscosity</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Pa.s</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>5.9803800000000004E-3</v>
-          </cell>
-          <cell r="C19">
-            <v>10.305199999999999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>6.73144E-3</v>
-          </cell>
-          <cell r="C20">
-            <v>12.9207</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7.5520400000000003E-3</v>
-          </cell>
-          <cell r="C21">
-            <v>12.9617</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>8.4743100000000005E-3</v>
-          </cell>
-          <cell r="C22">
-            <v>12.2172</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>9.5100700000000007E-3</v>
-          </cell>
-          <cell r="C23">
-            <v>11.5611</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1.06731E-2</v>
-          </cell>
-          <cell r="C24">
-            <v>11.057399999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.1969799999999999E-2</v>
-          </cell>
-          <cell r="C25">
-            <v>10.195600000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>1.3429E-2</v>
-          </cell>
-          <cell r="C26">
-            <v>9.5808599999999995</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.5072E-2</v>
-          </cell>
-          <cell r="C27">
-            <v>9.0255799999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>1.6906000000000001E-2</v>
-          </cell>
-          <cell r="C28">
-            <v>8.1643000000000008</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.89742E-2</v>
-          </cell>
-          <cell r="C29">
-            <v>8.6272699999999993</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.12905E-2</v>
-          </cell>
-          <cell r="C30">
-            <v>9.0526400000000002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2.3894100000000001E-2</v>
-          </cell>
-          <cell r="C31">
-            <v>9.1078100000000006</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>2.68036E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>9.6595300000000002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>2.9993300000000001E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>9.4570900000000009</v>
           </cell>
         </row>
       </sheetData>
@@ -17993,224 +17769,6 @@
           </cell>
           <cell r="C17">
             <v>1.24621</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Viscosity</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Pa.s</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>5.97139E-3</v>
-          </cell>
-          <cell r="C22">
-            <v>1.3366899999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>6.7155000000000001E-3</v>
-          </cell>
-          <cell r="C23">
-            <v>1.93306</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>7.5516699999999999E-3</v>
-          </cell>
-          <cell r="C24">
-            <v>2.3273100000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>8.4762899999999992E-3</v>
-          </cell>
-          <cell r="C25">
-            <v>2.2716799999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>9.50522E-3</v>
-          </cell>
-          <cell r="C26">
-            <v>2.40157</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.06683E-2</v>
-          </cell>
-          <cell r="C27">
-            <v>2.4613399999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>1.1965099999999999E-2</v>
-          </cell>
-          <cell r="C28">
-            <v>2.4148200000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.3426799999999999E-2</v>
-          </cell>
-          <cell r="C29">
-            <v>2.37981</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>1.5070500000000001E-2</v>
-          </cell>
-          <cell r="C30">
-            <v>2.2835899999999998</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1.6914100000000001E-2</v>
-          </cell>
-          <cell r="C31">
-            <v>2.18215</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.89556E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>2.1238800000000002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>2.1290799999999999E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>2.0575199999999998</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>2.3873999999999999E-2</v>
-          </cell>
-          <cell r="C34">
-            <v>2.0561500000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>2.6802300000000001E-2</v>
-          </cell>
-          <cell r="C35">
-            <v>2.0630999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>3.00822E-2</v>
-          </cell>
-          <cell r="C36">
-            <v>2.0815800000000002</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>3.3746100000000001E-2</v>
-          </cell>
-          <cell r="C37">
-            <v>2.0701800000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>3.7839699999999997E-2</v>
-          </cell>
-          <cell r="C38">
-            <v>2.0651999999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>4.2471200000000001E-2</v>
-          </cell>
-          <cell r="C39">
-            <v>2.2366000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>4.76409E-2</v>
-          </cell>
-          <cell r="C40">
-            <v>2.36111</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>5.3453899999999999E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>2.5158900000000002</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>5.99902E-2</v>
-          </cell>
-          <cell r="C42">
-            <v>2.6516899999999999</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>6.7321900000000004E-2</v>
-          </cell>
-          <cell r="C43">
-            <v>2.7906200000000001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>7.5531500000000001E-2</v>
-          </cell>
-          <cell r="C44">
-            <v>2.9019200000000001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>8.4754200000000002E-2</v>
-          </cell>
-          <cell r="C45">
-            <v>2.9188100000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>9.5093399999999995E-2</v>
-          </cell>
-          <cell r="C46">
-            <v>2.8608799999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>9.9997600000000006E-2</v>
-          </cell>
-          <cell r="C47">
-            <v>3.0289700000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -18924,7 +18482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE690FBE-C44C-4332-8FC8-3D5883231EDF}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
